--- a/biology/Botanique/Prinsepia_uniflora/Prinsepia_uniflora.xlsx
+++ b/biology/Botanique/Prinsepia_uniflora/Prinsepia_uniflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prinsepia uniflora est une espèce de plantes à fleurs de la famille des Rosaceae.
 C'est un arbuste originaire de Chine, cultivé à des fins ornementales.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Prinsepia uniflora est un arbuste de 1 à 2 m de hauteur, aux branches robustes, dotées d'épines de 6-10 mm.
 Les feuilles subsessiles sont oblongues-lancéolées, de 2-6  × 0,6-0,8 cm, aux marges serretées.
@@ -552,9 +566,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste se rencontre en Chine[1] dans le triangle Qinghai, Sichuan, Mongolie-Intérieure. Il croît entre 900 et 1000 mètres d'altitude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste se rencontre en Chine dans le triangle Qinghai, Sichuan, Mongolie-Intérieure. Il croît entre 900 et 1000 mètres d'altitude.
 C'est un arbuste ornemental cultivé dans les régions tempérées.
 </t>
         </is>
@@ -584,9 +600,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cerises sont consommées crues et les graines consommées dans les soupes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cerises sont consommées crues et les graines consommées dans les soupes.
 </t>
         </is>
       </c>
